--- a/RPA/InputFile.xlsx
+++ b/RPA/InputFile.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\folders\UniversityThirdYear\RPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A25CF114-0E65-4CC4-A4A5-48217C95CC5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D2796D-2DDC-418D-934B-1A14508A0A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,9 +40,6 @@
     <t>Tuns</t>
   </si>
   <si>
-    <t>Zalau</t>
-  </si>
-  <si>
     <t>Vopsit</t>
   </si>
   <si>
@@ -107,6 +104,9 @@
   </si>
   <si>
     <t>Service type</t>
+  </si>
+  <si>
+    <t>Bistrita</t>
   </si>
 </sst>
 </file>
@@ -427,7 +427,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,13 +439,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>25</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -453,10 +453,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -496,30 +496,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -531,12 +531,12 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -548,12 +548,12 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -565,12 +565,12 @@
         <v>4.7</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -582,12 +582,12 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -599,12 +599,12 @@
         <v>4.7</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>4.9000000000000004</v>
@@ -616,12 +616,12 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -633,12 +633,12 @@
         <v>4.7</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -650,12 +650,12 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -667,12 +667,12 @@
         <v>4.8</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -684,7 +684,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
